--- a/ExampleClass2/Book1.xlsx
+++ b/ExampleClass2/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyzeren/IdeaProjects/Z2101-ALGORITHM DESIGN &amp; ANALYSIS/ExampleClass2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A226303-0DD2-C841-BDCB-FD4504C5CEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8008B662-E727-A542-AF5C-626055984C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{2C817906-0E83-3647-93D4-8044A6F2BCF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="matrix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>V = 100, time = 179</t>
   </si>
@@ -98,12 +99,24 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>E percent = 300</t>
+  </si>
+  <si>
+    <t>E percent = v/2</t>
+  </si>
+  <si>
+    <t>Time/ms</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,13 +124,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,13 +221,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dijkstra</a:t>
+              <a:t>Densely connected Graph</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> in adjancent list with min heap priority queue</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -235,15 +265,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Matrix</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -271,10 +293,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:f>Sheet1!$G$27:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -304,99 +326,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$23</c:f>
+              <c:f>Sheet1!$H$27:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>426</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>908</c:v>
+                  <c:v>2419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2114</c:v>
+                  <c:v>3617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1545</c:v>
+                  <c:v>5290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2077</c:v>
+                  <c:v>7318</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2462</c:v>
+                  <c:v>9829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2815</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3473</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4591</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7374</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9990</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12560</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20812</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26440</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33773</c:v>
+                  <c:v>12915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,6 +373,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-54B8-9541-AD45-6475E4B24661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>List</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>481535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>886849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1447364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2191141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3297393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9715-4248-B8D1-69A7D92D556C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -735,7 +818,1467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dijkstra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in adjancent list with min heap priority queue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11288927850221506"/>
+          <c:y val="5.210242420484841E-2"/>
+          <c:w val="0.86707096006637341"/>
+          <c:h val="0.83566879533759064"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>v=300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54B8-9541-AD45-6475E4B24661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>v/2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>481535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>886849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1447364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2191141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3297393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9715-4248-B8D1-69A7D92D556C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1687953359"/>
+        <c:axId val="1709639103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1687953359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Vertex</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1709639103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1709639103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687953359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Dijkstra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Matrix Vs Dijkstra Adjacency List</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>matrix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>matrix!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>matrix!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83330</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>339870</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>523768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>759457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A60-154B-8287-DDF6FA06AA94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>List</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>matrix!$A$26:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>matrix!$B$26:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9990</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20812</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26440</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A60-154B-8287-DDF6FA06AA94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527115679"/>
+        <c:axId val="1192824047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="527115679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Vertex</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1192824047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1192824047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527115679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1291,20 +2834,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1329,6 +3904,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F61D45-1DED-7C4B-B95A-A96F0EA97E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833690AD-1A39-E445-904E-76518735AD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1338,6 +3992,28 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A6E4B510-6AEC-A946-9DF1-70C4E254D1C6}" name="Vertex"/>
     <tableColumn id="2" xr3:uid="{FEA078DC-A5F3-5246-8B05-A7B8070AB330}" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F027A29A-F489-EF46-9580-FCD834BE606C}" name="Table13" displayName="Table13" ref="G4:H23" totalsRowShown="0">
+  <autoFilter ref="G4:H23" xr:uid="{F027A29A-F489-EF46-9580-FCD834BE606C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5994B866-40B4-8248-B7D3-96707A6E2ED6}" name="Vertex"/>
+    <tableColumn id="2" xr3:uid="{1584CE30-3BFB-2F47-ADC8-2D64FAFEF5DF}" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FAAB4B1D-289A-B245-9E84-7E9F3769E319}" name="Table14" displayName="Table14" ref="A25:B44" totalsRowShown="0">
+  <autoFilter ref="A25:B44" xr:uid="{FAAB4B1D-289A-B245-9E84-7E9F3769E319}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6E30F5DF-71B5-6E4E-B853-74240449FCCC}" name="Vertex"/>
+    <tableColumn id="2" xr3:uid="{7E8113E7-644E-B34E-BD14-67D9C94AA758}" name="Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1640,30 +4316,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178104E5-4FA1-D340-A9E5-4DB5FC5B1E0C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +4358,14 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1684,8 +4375,14 @@
       <c r="E5">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1695,8 +4392,14 @@
       <c r="E6">
         <v>284</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>9671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1706,8 +4409,14 @@
       <c r="E7">
         <v>426</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>35419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1717,8 +4426,14 @@
       <c r="E8">
         <v>618</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>98909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1728,8 +4443,14 @@
       <c r="E9">
         <v>908</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>232495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1739,8 +4460,14 @@
       <c r="E10">
         <v>2114</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>481535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1750,8 +4477,14 @@
       <c r="E11">
         <v>1545</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
+        <v>886849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1761,8 +4494,14 @@
       <c r="E12">
         <v>2077</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>1447364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1772,8 +4511,14 @@
       <c r="E13">
         <v>2462</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>900</v>
+      </c>
+      <c r="H13">
+        <v>2191141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1783,8 +4528,14 @@
       <c r="E14">
         <v>2815</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>3297393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +4546,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +4557,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +4568,7 @@
         <v>7374</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +4579,7 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +4590,7 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>7000</v>
       </c>
@@ -1847,7 +4598,7 @@
         <v>15799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>8000</v>
       </c>
@@ -1855,7 +4606,7 @@
         <v>20812</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>9000</v>
       </c>
@@ -1863,11 +4614,439 @@
         <v>26440</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>10000</v>
       </c>
       <c r="E23">
+        <v>33773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="H28" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G30" s="2">
+        <v>400</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>500</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G32" s="2">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G34" s="2">
+        <v>800</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <v>900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>12915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89395F6-21D5-F045-9462-F378DC732AA3}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>12393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13">
+        <v>24755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4000</v>
+      </c>
+      <c r="B14">
+        <v>46996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5000</v>
+      </c>
+      <c r="B15">
+        <v>83330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6000</v>
+      </c>
+      <c r="B16">
+        <v>140503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7000</v>
+      </c>
+      <c r="B17">
+        <v>219555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>339870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9000</v>
+      </c>
+      <c r="B19">
+        <v>523768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20">
+        <v>759457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>400</v>
+      </c>
+      <c r="B29">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>600</v>
+      </c>
+      <c r="B31">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>700</v>
+      </c>
+      <c r="B32">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>800</v>
+      </c>
+      <c r="B33">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>900</v>
+      </c>
+      <c r="B34">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1000</v>
+      </c>
+      <c r="B35">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2000</v>
+      </c>
+      <c r="B36">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4000</v>
+      </c>
+      <c r="B38">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5000</v>
+      </c>
+      <c r="B39">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6000</v>
+      </c>
+      <c r="B40">
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7000</v>
+      </c>
+      <c r="B41">
+        <v>15799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8000</v>
+      </c>
+      <c r="B42">
+        <v>20812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9000</v>
+      </c>
+      <c r="B43">
+        <v>26440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10000</v>
+      </c>
+      <c r="B44">
         <v>33773</v>
       </c>
     </row>
